--- a/details-results/dados_epoca_detalhado.xlsx
+++ b/details-results/dados_epoca_detalhado.xlsx
@@ -511,43 +511,43 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6786</v>
+        <v>0.6752</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7534</v>
+        <v>0.7564</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6786</v>
+        <v>0.6724</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6111</v>
+        <v>0.6082</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9821</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.375</v>
+        <v>0.3448</v>
       </c>
       <c r="H2" t="n">
-        <v>0.625</v>
+        <v>0.6552</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0179</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N2" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3">
@@ -555,43 +555,43 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.875</v>
+        <v>0.8718</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8704</v>
+        <v>0.8855</v>
       </c>
       <c r="D3" t="n">
-        <v>0.875</v>
+        <v>0.8708</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9038</v>
+        <v>0.8056</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8393</v>
+        <v>0.9831</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9107</v>
+        <v>0.7586000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0893</v>
+        <v>0.2414</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1607</v>
+        <v>0.0169</v>
       </c>
       <c r="J3" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="N3" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4">
@@ -599,43 +599,43 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.875</v>
+        <v>0.906</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8833</v>
+        <v>0.9076</v>
       </c>
       <c r="D4" t="n">
-        <v>0.875</v>
+        <v>0.9059</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8280999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9464</v>
+        <v>0.9153</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8036</v>
+        <v>0.8966</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1964</v>
+        <v>0.1034</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0536</v>
+        <v>0.0847</v>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5">
@@ -643,43 +643,43 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8839</v>
+        <v>0.906</v>
       </c>
       <c r="C5" t="n">
-        <v>0.896</v>
+        <v>0.9091</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8839</v>
+        <v>0.9058</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8116</v>
+        <v>0.8871</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.9322</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7679</v>
+        <v>0.8793</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2321</v>
+        <v>0.1207</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.0678</v>
       </c>
       <c r="J5" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K5" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N5" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
@@ -687,43 +687,43 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8839</v>
+        <v>0.8889</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8738</v>
+        <v>0.8784999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8839</v>
+        <v>0.8897</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9574</v>
+        <v>0.9792</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8036</v>
+        <v>0.7966</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9643</v>
+        <v>0.9828</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0357</v>
+        <v>0.0172</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1964</v>
+        <v>0.2034</v>
       </c>
       <c r="J6" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N6" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
@@ -731,43 +731,43 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9018</v>
+        <v>0.9231</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9076</v>
+        <v>0.9256</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9018</v>
+        <v>0.9229000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8571</v>
+        <v>0.9032</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9643</v>
+        <v>0.9492</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8393</v>
+        <v>0.8966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1607</v>
+        <v>0.1034</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0357</v>
+        <v>0.0508</v>
       </c>
       <c r="J7" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N7" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8">
@@ -775,43 +775,43 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8929</v>
+        <v>0.9145</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8929</v>
+        <v>0.918</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8929</v>
+        <v>0.9142</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8929</v>
+        <v>0.8889</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8929</v>
+        <v>0.9492</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8929</v>
+        <v>0.8793</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1071</v>
+        <v>0.1207</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1071</v>
+        <v>0.0508</v>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N8" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
@@ -819,43 +819,43 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8839</v>
+        <v>0.9145</v>
       </c>
       <c r="C9" t="n">
-        <v>0.896</v>
+        <v>0.9153</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8839</v>
+        <v>0.9145</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8116</v>
+        <v>0.9153</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.9153</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7679</v>
+        <v>0.9137999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2321</v>
+        <v>0.0862</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.0847</v>
       </c>
       <c r="J9" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K9" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N9" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -863,43 +863,43 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8929</v>
+        <v>0.906</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9032</v>
+        <v>0.9076</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8929</v>
+        <v>0.9059</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8235</v>
+        <v>0.9</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.9153</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7857</v>
+        <v>0.8966</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2143</v>
+        <v>0.1034</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.0847</v>
       </c>
       <c r="J10" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K10" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N10" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
@@ -907,43 +907,43 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8661</v>
+        <v>0.9316</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8454</v>
+        <v>0.9333</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8661</v>
+        <v>0.9315</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0.918</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7321</v>
+        <v>0.9492</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.9137999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.0862</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2679</v>
+        <v>0.0508</v>
       </c>
       <c r="J11" t="n">
+        <v>53</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
         <v>56</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>15</v>
-      </c>
-      <c r="M11" t="n">
-        <v>41</v>
-      </c>
       <c r="N11" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -951,43 +951,43 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8571</v>
+        <v>0.9231</v>
       </c>
       <c r="C12" t="n">
-        <v>0.875</v>
+        <v>0.9244</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8571</v>
+        <v>0.923</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7778</v>
+        <v>0.9167</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.9322</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7143</v>
+        <v>0.9137999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2857</v>
+        <v>0.0862</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.0678</v>
       </c>
       <c r="J12" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K12" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N12" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -995,43 +995,43 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9018</v>
+        <v>0.9231</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9026999999999999</v>
+        <v>0.9256</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9018</v>
+        <v>0.9229000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8947000000000001</v>
+        <v>0.9032</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9107</v>
+        <v>0.9492</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8929</v>
+        <v>0.8966</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1071</v>
+        <v>0.1034</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0893</v>
+        <v>0.0508</v>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K13" t="n">
         <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N13" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
@@ -1039,43 +1039,43 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9018</v>
+        <v>0.9316</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9106</v>
+        <v>0.931</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9018</v>
+        <v>0.9318</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8358</v>
+        <v>0.9474</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.9153</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8036</v>
+        <v>0.9483</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1964</v>
+        <v>0.0517</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.0847</v>
       </c>
       <c r="J14" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N14" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15">
@@ -1083,43 +1083,43 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9107</v>
+        <v>0.9231</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9038</v>
+        <v>0.9217</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9107</v>
+        <v>0.9233</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9792</v>
+        <v>0.9464</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8393</v>
+        <v>0.8983</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9821</v>
+        <v>0.9483</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0179</v>
+        <v>0.0517</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1607</v>
+        <v>0.1017</v>
       </c>
       <c r="J15" t="n">
         <v>55</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="N15" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1127,43 +1127,43 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9286</v>
+        <v>0.9402</v>
       </c>
       <c r="C16" t="n">
+        <v>0.9402</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9402</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9483</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.9322</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.9286</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.8871</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.9821</v>
-      </c>
       <c r="G16" t="n">
-        <v>0.875</v>
+        <v>0.9483</v>
       </c>
       <c r="H16" t="n">
-        <v>0.125</v>
+        <v>0.0517</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0179</v>
+        <v>0.0678</v>
       </c>
       <c r="J16" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>55</v>
       </c>
       <c r="N16" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17">
@@ -1171,43 +1171,43 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9286</v>
+        <v>0.9316</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9286</v>
+        <v>0.9344</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9286</v>
+        <v>0.9313</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9286</v>
+        <v>0.9048</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9286</v>
+        <v>0.9661</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9286</v>
+        <v>0.8966</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.1034</v>
       </c>
       <c r="I17" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.0339</v>
       </c>
       <c r="J17" t="n">
         <v>52</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N17" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18">
@@ -1215,43 +1215,43 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9196</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9159</v>
+        <v>0.7708</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9196</v>
+        <v>0.8136</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9608</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.875</v>
+        <v>0.6271</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9643</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0357</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.125</v>
+        <v>0.3729</v>
       </c>
       <c r="J18" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M18" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N18" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19">
@@ -1259,43 +1259,43 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.875</v>
+        <v>0.9231</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8571</v>
+        <v>0.9244</v>
       </c>
       <c r="D19" t="n">
-        <v>0.875</v>
+        <v>0.923</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0.9167</v>
       </c>
       <c r="F19" t="n">
-        <v>0.75</v>
+        <v>0.9322</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.9137999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.0862</v>
       </c>
       <c r="I19" t="n">
-        <v>0.25</v>
+        <v>0.0678</v>
       </c>
       <c r="J19" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="N19" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
@@ -1303,43 +1303,43 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9196</v>
+        <v>0.9402</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9204</v>
+        <v>0.9402</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9196</v>
+        <v>0.9402</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9123</v>
+        <v>0.9483</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9286</v>
+        <v>0.9322</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9107</v>
+        <v>0.9483</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0893</v>
+        <v>0.0517</v>
       </c>
       <c r="I20" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.0678</v>
       </c>
       <c r="J20" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N20" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21">
@@ -1347,43 +1347,43 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9107</v>
+        <v>0.9402</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9137999999999999</v>
+        <v>0.9402</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9107</v>
+        <v>0.9402</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8833</v>
+        <v>0.9483</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9464</v>
+        <v>0.9322</v>
       </c>
       <c r="G21" t="n">
-        <v>0.875</v>
+        <v>0.9483</v>
       </c>
       <c r="H21" t="n">
-        <v>0.125</v>
+        <v>0.0517</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0536</v>
+        <v>0.0678</v>
       </c>
       <c r="J21" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N21" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22">
@@ -1391,43 +1391,43 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9464</v>
+        <v>0.9231</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9474</v>
+        <v>0.9231</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9464</v>
+        <v>0.9231</v>
       </c>
       <c r="E22" t="n">
         <v>0.931</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9643</v>
+        <v>0.9153</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9286</v>
+        <v>0.931</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0357</v>
+        <v>0.0847</v>
       </c>
       <c r="J22" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
         <v>54</v>
       </c>
       <c r="N22" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23">
@@ -1435,43 +1435,43 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9286</v>
+        <v>0.9316</v>
       </c>
       <c r="C23" t="n">
         <v>0.931</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9286</v>
+        <v>0.9318</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9</v>
+        <v>0.9474</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9643</v>
+        <v>0.9153</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8929</v>
+        <v>0.9483</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1071</v>
+        <v>0.0517</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0357</v>
+        <v>0.0847</v>
       </c>
       <c r="J23" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
         <v>54</v>
       </c>
       <c r="N23" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
@@ -1479,43 +1479,43 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9196</v>
+        <v>0.9316</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9231</v>
+        <v>0.9298</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9196</v>
+        <v>0.9319</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8852</v>
+        <v>0.9636</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9643</v>
+        <v>0.8983</v>
       </c>
       <c r="G24" t="n">
-        <v>0.875</v>
+        <v>0.9655</v>
       </c>
       <c r="H24" t="n">
-        <v>0.125</v>
+        <v>0.0345</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0357</v>
+        <v>0.1017</v>
       </c>
       <c r="J24" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K24" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N24" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -1523,43 +1523,43 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9286</v>
+        <v>0.9316</v>
       </c>
       <c r="C25" t="n">
         <v>0.931</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9286</v>
+        <v>0.9318</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9</v>
+        <v>0.9474</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9643</v>
+        <v>0.9153</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8929</v>
+        <v>0.9483</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1071</v>
+        <v>0.0517</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0357</v>
+        <v>0.0847</v>
       </c>
       <c r="J25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>54</v>
       </c>
       <c r="N25" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
@@ -1567,43 +1567,43 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6339</v>
+        <v>0.9402</v>
       </c>
       <c r="C26" t="n">
-        <v>0.732</v>
+        <v>0.9391</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6339</v>
+        <v>0.9404</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5773</v>
+        <v>0.9643</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0.9153</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2679</v>
+        <v>0.9655</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7321</v>
+        <v>0.0345</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.0847</v>
       </c>
       <c r="J26" t="n">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="K26" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N26" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
@@ -1611,43 +1611,43 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9107</v>
+        <v>0.9316</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9123</v>
+        <v>0.931</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9107</v>
+        <v>0.9318</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8966</v>
+        <v>0.9474</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9286</v>
+        <v>0.9153</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8929</v>
+        <v>0.9483</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1071</v>
+        <v>0.0517</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.0847</v>
       </c>
       <c r="J27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N27" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
@@ -1655,43 +1655,43 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9286</v>
+        <v>0.9316</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9273</v>
+        <v>0.9298</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9286</v>
+        <v>0.9319</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9444</v>
+        <v>0.9636</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9107</v>
+        <v>0.8983</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9464</v>
+        <v>0.9655</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0536</v>
+        <v>0.0345</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0893</v>
+        <v>0.1017</v>
       </c>
       <c r="J28" t="n">
+        <v>56</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6</v>
+      </c>
+      <c r="M28" t="n">
         <v>53</v>
       </c>
-      <c r="K28" t="n">
-        <v>3</v>
-      </c>
-      <c r="L28" t="n">
-        <v>5</v>
-      </c>
-      <c r="M28" t="n">
-        <v>51</v>
-      </c>
       <c r="N28" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
@@ -1699,43 +1699,43 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9375</v>
+        <v>0.9145</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9369</v>
+        <v>0.9219000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9375</v>
+        <v>0.9137999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9455</v>
+        <v>0.8551</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9286</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9464</v>
+        <v>0.8276</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0536</v>
+        <v>0.1724</v>
       </c>
       <c r="I29" t="n">
-        <v>0.07140000000000001</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="N29" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
@@ -1743,43 +1743,43 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9196</v>
+        <v>0.9402</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9189000000000001</v>
+        <v>0.9402</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9196</v>
+        <v>0.9402</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9273</v>
+        <v>0.9483</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9107</v>
+        <v>0.9322</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9286</v>
+        <v>0.9483</v>
       </c>
       <c r="H30" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.0517</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0893</v>
+        <v>0.0678</v>
       </c>
       <c r="J30" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K30" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" t="n">
         <v>4</v>
       </c>
-      <c r="L30" t="n">
-        <v>5</v>
-      </c>
       <c r="M30" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N30" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -1787,43 +1787,43 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9107</v>
+        <v>0.9402</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9038</v>
+        <v>0.9402</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9107</v>
+        <v>0.9402</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9792</v>
+        <v>0.9483</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8393</v>
+        <v>0.9322</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9821</v>
+        <v>0.9483</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0179</v>
+        <v>0.0517</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1607</v>
+        <v>0.0678</v>
       </c>
       <c r="J31" t="n">
         <v>55</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="N31" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -1831,43 +1831,43 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9196</v>
+        <v>0.9231</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9256</v>
+        <v>0.9217</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9196</v>
+        <v>0.9233</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8615</v>
+        <v>0.9464</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0.8983</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8393</v>
+        <v>0.9483</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1607</v>
+        <v>0.0517</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.1017</v>
       </c>
       <c r="J32" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K32" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M32" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N32" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
@@ -1875,31 +1875,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9286</v>
+        <v>0.9316</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9286</v>
+        <v>0.9322</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9286</v>
+        <v>0.9316</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9286</v>
+        <v>0.9322</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9286</v>
+        <v>0.9322</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9286</v>
+        <v>0.931</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.0678</v>
       </c>
       <c r="J33" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K33" t="n">
         <v>4</v>
@@ -1908,10 +1908,10 @@
         <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N33" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
@@ -1919,43 +1919,43 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9375</v>
+        <v>0.9231</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9369</v>
+        <v>0.9204</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9375</v>
+        <v>0.9234</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9455</v>
+        <v>0.963</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9286</v>
+        <v>0.8814</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9464</v>
+        <v>0.9655</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0536</v>
+        <v>0.0345</v>
       </c>
       <c r="I34" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.1186</v>
       </c>
       <c r="J34" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M34" t="n">
         <v>52</v>
       </c>
       <c r="N34" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
@@ -1963,43 +1963,43 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9375</v>
+        <v>0.9487</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9391</v>
+        <v>0.9474</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9375</v>
+        <v>0.949</v>
       </c>
       <c r="E35" t="n">
+        <v>0.9818</v>
+      </c>
+      <c r="F35" t="n">
         <v>0.9153</v>
       </c>
-      <c r="F35" t="n">
-        <v>0.9643</v>
-      </c>
       <c r="G35" t="n">
-        <v>0.9107</v>
+        <v>0.9828</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0893</v>
+        <v>0.0172</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0357</v>
+        <v>0.0847</v>
       </c>
       <c r="J35" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
         <v>5</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>54</v>
       </c>
       <c r="N35" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -2007,43 +2007,43 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9286</v>
+        <v>0.9402</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9273</v>
+        <v>0.9391</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9286</v>
+        <v>0.9404</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9444</v>
+        <v>0.9643</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9107</v>
+        <v>0.9153</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9464</v>
+        <v>0.9655</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0536</v>
+        <v>0.0345</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0893</v>
+        <v>0.0847</v>
       </c>
       <c r="J36" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36" t="n">
         <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N36" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/details-results/dados_epoca_detalhado.xlsx
+++ b/details-results/dados_epoca_detalhado.xlsx
@@ -511,43 +511,43 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6752</v>
+        <v>0.8361</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7564</v>
+        <v>0.8305</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6724</v>
+        <v>0.8368</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6082</v>
+        <v>0.875</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.7903</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3448</v>
+        <v>0.8833</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6552</v>
+        <v>0.1167</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.2097</v>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="K2" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M2" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="N2" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3">
@@ -555,43 +555,43 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8718</v>
+        <v>0.6803</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8855</v>
+        <v>0.7578</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8708</v>
+        <v>0.6753</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8056</v>
+        <v>0.6162</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9831</v>
+        <v>0.9839</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7586000000000001</v>
+        <v>0.3667</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2414</v>
+        <v>0.6333</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0169</v>
+        <v>0.0161</v>
       </c>
       <c r="J3" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K3" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N3" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
@@ -599,43 +599,43 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.906</v>
+        <v>0.8607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9076</v>
+        <v>0.8759</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9059</v>
+        <v>0.8589</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9153</v>
+        <v>0.9677</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8966</v>
+        <v>0.75</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1034</v>
+        <v>0.25</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0847</v>
+        <v>0.0323</v>
       </c>
       <c r="J4" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
@@ -643,43 +643,43 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.906</v>
+        <v>0.7213000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9091</v>
+        <v>0.7848000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9058</v>
+        <v>0.7167</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8871</v>
+        <v>0.6458</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9322</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8793</v>
+        <v>0.4333</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1207</v>
+        <v>0.5667</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0678</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="N5" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6">
@@ -687,43 +687,43 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8889</v>
+        <v>0.9016</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8784999999999999</v>
+        <v>0.9077</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8897</v>
+        <v>0.9008</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9792</v>
+        <v>0.8676</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7966</v>
+        <v>0.9516</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9828</v>
+        <v>0.85</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0172</v>
+        <v>0.15</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2034</v>
+        <v>0.0484</v>
       </c>
       <c r="J6" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L6" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="N6" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
@@ -731,43 +731,43 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9231</v>
+        <v>0.9016</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9256</v>
+        <v>0.9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9229000000000001</v>
+        <v>0.9022</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9032</v>
+        <v>0.931</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9492</v>
+        <v>0.871</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8966</v>
+        <v>0.9333</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1034</v>
+        <v>0.0667</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0508</v>
+        <v>0.129</v>
       </c>
       <c r="J7" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N7" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
@@ -775,43 +775,43 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9145</v>
+        <v>0.9098000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.918</v>
+        <v>0.9147</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9142</v>
+        <v>0.9091</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8889</v>
+        <v>0.8806</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9492</v>
+        <v>0.9516</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8793</v>
+        <v>0.8667</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1207</v>
+        <v>0.1333</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0508</v>
+        <v>0.0484</v>
       </c>
       <c r="J8" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N8" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
@@ -819,43 +819,43 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9145</v>
+        <v>0.9262</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9153</v>
+        <v>0.9268</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9145</v>
+        <v>0.9263</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9153</v>
+        <v>0.9344</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9153</v>
+        <v>0.9194</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9137999999999999</v>
+        <v>0.9333</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0862</v>
+        <v>0.0667</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0847</v>
+        <v>0.0806</v>
       </c>
       <c r="J9" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N9" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
@@ -863,43 +863,43 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.906</v>
+        <v>0.8934</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9076</v>
+        <v>0.887</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9059</v>
+        <v>0.8946</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9</v>
+        <v>0.9623</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9153</v>
+        <v>0.8226</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8966</v>
+        <v>0.9667</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1034</v>
+        <v>0.0333</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0847</v>
+        <v>0.1774</v>
       </c>
       <c r="J10" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M10" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N10" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -907,43 +907,43 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9316</v>
+        <v>0.9262</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9333</v>
+        <v>0.9291</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9315</v>
+        <v>0.9258</v>
       </c>
       <c r="E11" t="n">
-        <v>0.918</v>
+        <v>0.9077</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9492</v>
+        <v>0.9516</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9137999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0862</v>
+        <v>0.1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0508</v>
+        <v>0.0484</v>
       </c>
       <c r="J11" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
         <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N11" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -951,31 +951,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9231</v>
+        <v>0.9262</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9244</v>
+        <v>0.928</v>
       </c>
       <c r="D12" t="n">
-        <v>0.923</v>
+        <v>0.9261</v>
       </c>
       <c r="E12" t="n">
+        <v>0.9206</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9355</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.9167</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.9322</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.9137999999999999</v>
-      </c>
       <c r="H12" t="n">
-        <v>0.0862</v>
+        <v>0.0833</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0678</v>
+        <v>0.0645</v>
       </c>
       <c r="J12" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K12" t="n">
         <v>5</v>
@@ -984,10 +984,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N12" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
@@ -995,43 +995,43 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9231</v>
+        <v>0.9344</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9256</v>
+        <v>0.9355</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9229000000000001</v>
+        <v>0.9344</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9032</v>
+        <v>0.9355</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9492</v>
+        <v>0.9355</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8966</v>
+        <v>0.9333</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1034</v>
+        <v>0.0667</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0508</v>
+        <v>0.0645</v>
       </c>
       <c r="J13" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N13" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
@@ -1039,43 +1039,43 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9316</v>
+        <v>0.6885</v>
       </c>
       <c r="C14" t="n">
-        <v>0.931</v>
+        <v>0.7654</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9318</v>
+        <v>0.6833</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9474</v>
+        <v>0.62</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9153</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9483</v>
+        <v>0.3667</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0517</v>
+        <v>0.6333</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0847</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="N14" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
@@ -1083,43 +1083,43 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9231</v>
+        <v>0.9426</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9217</v>
+        <v>0.944</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9233</v>
+        <v>0.9425</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9464</v>
+        <v>0.9365</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8983</v>
+        <v>0.9516</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9483</v>
+        <v>0.9333</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0517</v>
+        <v>0.0667</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1017</v>
+        <v>0.0484</v>
       </c>
       <c r="J15" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K15" t="n">
+        <v>4</v>
+      </c>
+      <c r="L15" t="n">
         <v>3</v>
       </c>
-      <c r="L15" t="n">
-        <v>6</v>
-      </c>
       <c r="M15" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N15" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16">
@@ -1127,43 +1127,43 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9402</v>
+        <v>0.9344</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9402</v>
+        <v>0.9355</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9402</v>
+        <v>0.9344</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9483</v>
+        <v>0.9355</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9322</v>
+        <v>0.9355</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9483</v>
+        <v>0.9333</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0517</v>
+        <v>0.0667</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0678</v>
+        <v>0.0645</v>
       </c>
       <c r="J16" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N16" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17">
@@ -1171,43 +1171,43 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9316</v>
+        <v>0.9508</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9344</v>
+        <v>0.9538</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9313</v>
+        <v>0.95</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9048</v>
+        <v>0.9118000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9661</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8966</v>
+        <v>0.9</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1034</v>
+        <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0339</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K17" t="n">
         <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N17" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18">
@@ -1215,43 +1215,43 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.9344</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7708</v>
+        <v>0.9385</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8136</v>
+        <v>0.9336</v>
       </c>
       <c r="E18" t="n">
+        <v>0.8971</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9839</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8833</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.1167</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0161</v>
+      </c>
+      <c r="J18" t="n">
+        <v>53</v>
+      </c>
+      <c r="K18" t="n">
+        <v>7</v>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.6271</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.3729</v>
-      </c>
-      <c r="J18" t="n">
-        <v>58</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>22</v>
-      </c>
       <c r="M18" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="N18" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
@@ -1259,43 +1259,43 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9231</v>
+        <v>0.6967</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9244</v>
+        <v>0.7702</v>
       </c>
       <c r="D19" t="n">
-        <v>0.923</v>
+        <v>0.6917</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9167</v>
+        <v>0.6263</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9322</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9137999999999999</v>
+        <v>0.3833</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0862</v>
+        <v>0.6167</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="N19" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
@@ -1303,43 +1303,43 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9402</v>
+        <v>0.918</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9402</v>
+        <v>0.918</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9402</v>
+        <v>0.9183</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9483</v>
+        <v>0.9333</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9322</v>
+        <v>0.9032</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9483</v>
+        <v>0.9333</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0517</v>
+        <v>0.0667</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0678</v>
+        <v>0.0968</v>
       </c>
       <c r="J20" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N20" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21">
@@ -1347,43 +1347,43 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9402</v>
+        <v>0.918</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9402</v>
+        <v>0.9194</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9402</v>
+        <v>0.918</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9483</v>
+        <v>0.9194</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9322</v>
+        <v>0.9194</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9483</v>
+        <v>0.9167</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0517</v>
+        <v>0.0833</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0678</v>
+        <v>0.0806</v>
       </c>
       <c r="J21" t="n">
         <v>55</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N21" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22">
@@ -1391,43 +1391,43 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9231</v>
+        <v>0.9426</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9231</v>
+        <v>0.9457</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9231</v>
+        <v>0.9419</v>
       </c>
       <c r="E22" t="n">
-        <v>0.931</v>
+        <v>0.9104</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9153</v>
+        <v>0.9839</v>
       </c>
       <c r="G22" t="n">
-        <v>0.931</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0847</v>
+        <v>0.0161</v>
       </c>
       <c r="J22" t="n">
         <v>54</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N22" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23">
@@ -1435,43 +1435,43 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9316</v>
+        <v>0.9344</v>
       </c>
       <c r="C23" t="n">
-        <v>0.931</v>
+        <v>0.9375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9318</v>
+        <v>0.9339</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9474</v>
+        <v>0.9091</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9153</v>
+        <v>0.9677</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9483</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0517</v>
+        <v>0.1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0847</v>
+        <v>0.0323</v>
       </c>
       <c r="J23" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24">
@@ -1479,43 +1479,43 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9316</v>
+        <v>0.9016</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9298</v>
+        <v>0.8983</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9319</v>
+        <v>0.9024</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9636</v>
+        <v>0.9464</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8983</v>
+        <v>0.8548</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9655</v>
+        <v>0.95</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0345</v>
+        <v>0.05</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1017</v>
+        <v>0.1452</v>
       </c>
       <c r="J24" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M24" t="n">
         <v>53</v>
       </c>
       <c r="N24" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
@@ -1523,43 +1523,43 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9316</v>
+        <v>0.9344</v>
       </c>
       <c r="C25" t="n">
-        <v>0.931</v>
+        <v>0.9355</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9318</v>
+        <v>0.9344</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9474</v>
+        <v>0.9355</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9153</v>
+        <v>0.9355</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9483</v>
+        <v>0.9333</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0517</v>
+        <v>0.0667</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0847</v>
+        <v>0.0645</v>
       </c>
       <c r="J25" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N25" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26">
@@ -1567,43 +1567,43 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9402</v>
+        <v>0.9344</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9391</v>
+        <v>0.9355</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9404</v>
+        <v>0.9344</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9643</v>
+        <v>0.9355</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9153</v>
+        <v>0.9355</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9655</v>
+        <v>0.9333</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0345</v>
+        <v>0.0667</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0847</v>
+        <v>0.0645</v>
       </c>
       <c r="J26" t="n">
         <v>56</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N26" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27">
@@ -1611,43 +1611,43 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9316</v>
+        <v>0.9508</v>
       </c>
       <c r="C27" t="n">
-        <v>0.931</v>
+        <v>0.9524</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9318</v>
+        <v>0.9505</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9474</v>
+        <v>0.9375</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9153</v>
+        <v>0.9677</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9483</v>
+        <v>0.9333</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0517</v>
+        <v>0.0667</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0847</v>
+        <v>0.0323</v>
       </c>
       <c r="J27" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N27" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
@@ -1655,43 +1655,43 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9316</v>
+        <v>0.9344</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9298</v>
+        <v>0.9355</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9319</v>
+        <v>0.9344</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9636</v>
+        <v>0.9355</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8983</v>
+        <v>0.9355</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9655</v>
+        <v>0.9333</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0345</v>
+        <v>0.0667</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1017</v>
+        <v>0.0645</v>
       </c>
       <c r="J28" t="n">
         <v>56</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N28" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
@@ -1699,43 +1699,43 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9145</v>
+        <v>0.9344</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9219000000000001</v>
+        <v>0.9355</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9137999999999999</v>
+        <v>0.9344</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8551</v>
+        <v>0.9355</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0.9355</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8276</v>
+        <v>0.9333</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1724</v>
+        <v>0.0667</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.0645</v>
       </c>
       <c r="J29" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N29" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
@@ -1743,43 +1743,43 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9402</v>
+        <v>0.5901999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9402</v>
+        <v>0.7126</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9402</v>
+        <v>0.5833</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9483</v>
+        <v>0.5536</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9322</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9483</v>
+        <v>0.1667</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0517</v>
+        <v>0.8333</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0678</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="N30" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
@@ -1787,43 +1787,43 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9402</v>
+        <v>0.9344</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9402</v>
+        <v>0.9355</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9402</v>
+        <v>0.9344</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9483</v>
+        <v>0.9355</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9322</v>
+        <v>0.9355</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9483</v>
+        <v>0.9333</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0517</v>
+        <v>0.0667</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0678</v>
+        <v>0.0645</v>
       </c>
       <c r="J31" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
         <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N31" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32">
@@ -1831,43 +1831,43 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9231</v>
+        <v>0.9344</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9217</v>
+        <v>0.9355</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9233</v>
+        <v>0.9344</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9464</v>
+        <v>0.9355</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8983</v>
+        <v>0.9355</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9483</v>
+        <v>0.9333</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0517</v>
+        <v>0.0667</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1017</v>
+        <v>0.0645</v>
       </c>
       <c r="J32" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N32" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
@@ -1875,31 +1875,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9316</v>
+        <v>0.9344</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9322</v>
+        <v>0.9355</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9316</v>
+        <v>0.9344</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9322</v>
+        <v>0.9355</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9322</v>
+        <v>0.9355</v>
       </c>
       <c r="G33" t="n">
-        <v>0.931</v>
+        <v>0.9333</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.0667</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0678</v>
+        <v>0.0645</v>
       </c>
       <c r="J33" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K33" t="n">
         <v>4</v>
@@ -1908,10 +1908,10 @@
         <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N33" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
@@ -1919,43 +1919,43 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9231</v>
+        <v>0.9426</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9204</v>
+        <v>0.944</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9234</v>
+        <v>0.9425</v>
       </c>
       <c r="E34" t="n">
-        <v>0.963</v>
+        <v>0.9365</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8814</v>
+        <v>0.9516</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9655</v>
+        <v>0.9333</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0345</v>
+        <v>0.0667</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1186</v>
+        <v>0.0484</v>
       </c>
       <c r="J34" t="n">
         <v>56</v>
       </c>
       <c r="K34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="N34" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -1963,43 +1963,43 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9487</v>
+        <v>0.9508</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9474</v>
+        <v>0.9530999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.949</v>
+        <v>0.9503</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9818</v>
+        <v>0.9242</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9153</v>
+        <v>0.9839</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9828</v>
+        <v>0.9167</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0172</v>
+        <v>0.0833</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0847</v>
+        <v>0.0161</v>
       </c>
       <c r="J35" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K35" t="n">
+        <v>5</v>
+      </c>
+      <c r="L35" t="n">
         <v>1</v>
       </c>
-      <c r="L35" t="n">
-        <v>5</v>
-      </c>
       <c r="M35" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N35" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -2007,43 +2007,43 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9402</v>
+        <v>0.9426</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9391</v>
+        <v>0.9457</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9404</v>
+        <v>0.9419</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9643</v>
+        <v>0.9104</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9153</v>
+        <v>0.9839</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9655</v>
+        <v>0.9</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0345</v>
+        <v>0.1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0847</v>
+        <v>0.0161</v>
       </c>
       <c r="J36" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N36" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
